--- a/HYPERPARAMETER EXPERIMETS.xlsx
+++ b/HYPERPARAMETER EXPERIMETS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ai intro\Angiografii\PROIECT_ANGIOGRAFII\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D351A378-3A62-4870-8CFB-4983E282DC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516BC818-256F-47C1-82E6-499DEF73006B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15348" yWindow="2364" windowWidth="15336" windowHeight="8040" xr2:uid="{002A3F29-F935-49C7-A18C-FD17DA2C5C62}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{002A3F29-F935-49C7-A18C-FD17DA2C5C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="61">
   <si>
     <t>Model idx</t>
   </si>
@@ -179,40 +179,43 @@
     <t>EXPERIMETE SAPTAMANA A2A</t>
   </si>
   <si>
-    <t>  1.0</t>
-  </si>
-  <si>
-    <t>Rotate_prob</t>
-  </si>
-  <si>
-    <t>rotate_range</t>
-  </si>
-  <si>
-    <t>        [0.4, 0.4]</t>
-  </si>
-  <si>
-    <t>flip_prob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          1.0 </t>
-  </si>
-  <si>
-    <t>flip_aptial _axis</t>
-  </si>
-  <si>
-    <t>          1.0</t>
-  </si>
-  <si>
-    <t>rand_crop_samples</t>
-  </si>
-  <si>
-    <t>rand_crop_size</t>
-  </si>
-  <si>
-    <t>[100,100,100]</t>
-  </si>
-  <si>
-    <t>sigma</t>
+    <t>Rotation Probability</t>
+  </si>
+  <si>
+    <t>Rotation Probability=0.5</t>
+  </si>
+  <si>
+    <t>  epochs: 200</t>
+  </si>
+  <si>
+    <t>58,35</t>
+  </si>
+  <si>
+    <t>  opt: ADAM</t>
+  </si>
+  <si>
+    <t>EXPERIMETE SAPTAMANA A3A</t>
+  </si>
+  <si>
+    <t>Zoom_prob</t>
+  </si>
+  <si>
+    <t>Min_zoom</t>
+  </si>
+  <si>
+    <t>Max_zoom</t>
+  </si>
+  <si>
+    <t>Zoom_prob=1</t>
+  </si>
+  <si>
+    <t>min_zoom=1.3</t>
+  </si>
+  <si>
+    <t>Max_zoom=1.5</t>
+  </si>
+  <si>
+    <t>  opt: RMS_prop</t>
   </si>
 </sst>
 </file>
@@ -293,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -318,9 +321,16 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845F187A-3BB9-42A8-940E-BCA2A02A70C4}">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M7" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -649,7 +659,7 @@
     <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.88671875" customWidth="1"/>
     <col min="7" max="7" width="14.109375" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
@@ -658,20 +668,21 @@
     <col min="14" max="14" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.88671875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
@@ -706,7 +717,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
@@ -754,7 +765,7 @@
       </c>
       <c r="P2" s="8"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
@@ -804,7 +815,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
@@ -852,7 +863,7 @@
       </c>
       <c r="P4" s="8"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
@@ -900,7 +911,7 @@
       </c>
       <c r="P5" s="8"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
@@ -948,7 +959,7 @@
       </c>
       <c r="P6" s="8"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>23</v>
       </c>
@@ -996,7 +1007,7 @@
       </c>
       <c r="P7" s="8"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
@@ -1044,7 +1055,7 @@
       </c>
       <c r="P8" s="8"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
@@ -1092,7 +1103,7 @@
       </c>
       <c r="P9" s="8"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>46</v>
       </c>
@@ -1140,86 +1151,81 @@
       </c>
       <c r="P10" s="8"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-    </row>
-    <row r="15" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+    </row>
+    <row r="15" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="3" t="s">
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>50</v>
+      <c r="J15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>54</v>
+        <v>9</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="P15" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="R15" s="6" t="s">
+      <c r="Q15" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>13</v>
-      </c>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
       <c r="B16" s="7" t="s">
         <v>25</v>
       </c>
@@ -1245,38 +1251,556 @@
         <v>32</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P16">
+        <v>99.94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P18">
+        <v>86.85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P19">
+        <v>76.599999999999994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P20">
+        <v>97.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P21">
+        <v>95.03</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P22">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="13"/>
+    </row>
+    <row r="25" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O25" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M16" s="7" t="s">
+      <c r="P25" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q25" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="N16" s="7">
-        <v>4</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="R25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="T25" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="Q16">
-        <v>99.94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
+      <c r="R26" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="R27" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B28" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="R28" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
+    <mergeCell ref="C25:E25"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A14:N14"/>
     <mergeCell ref="C15:E15"/>
+    <mergeCell ref="A24:Q24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/HYPERPARAMETER EXPERIMETS.xlsx
+++ b/HYPERPARAMETER EXPERIMETS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ai intro\Angiografii\PROIECT_ANGIOGRAFII\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516BC818-256F-47C1-82E6-499DEF73006B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35821F0B-9370-4F39-B4F0-99C2E6971ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{002A3F29-F935-49C7-A18C-FD17DA2C5C62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="72">
   <si>
     <t>Model idx</t>
   </si>
@@ -216,6 +216,39 @@
   </si>
   <si>
     <t>  opt: RMS_prop</t>
+  </si>
+  <si>
+    <t>Rotation Probability=0..01</t>
+  </si>
+  <si>
+    <t>Zoom_prob=0.01</t>
+  </si>
+  <si>
+    <t>  sigma: [0.1,3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">include background flase </t>
+  </si>
+  <si>
+    <t>one hot</t>
+  </si>
+  <si>
+    <t>  epochs: 400</t>
+  </si>
+  <si>
+    <t>  epochs: 300</t>
+  </si>
+  <si>
+    <t>  flip_probability: 0.2</t>
+  </si>
+  <si>
+    <t>Rotation Probability=0.2</t>
+  </si>
+  <si>
+    <t>Zoom_prob=0.2</t>
+  </si>
+  <si>
+    <t>Zoom_prob=0.5</t>
   </si>
 </sst>
 </file>
@@ -296,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -324,13 +357,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -645,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845F187A-3BB9-42A8-940E-BCA2A02A70C4}">
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="G22" workbookViewId="0">
+      <selection activeCell="S42" sqref="S42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -678,11 +714,11 @@
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1158,22 +1194,22 @@
       <c r="A12" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
     </row>
     <row r="15" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -1182,11 +1218,11 @@
       <c r="B15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
       <c r="F15" s="4" t="s">
         <v>4</v>
       </c>
@@ -1556,26 +1592,26 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="11"/>
     </row>
     <row r="25" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -1584,11 +1620,11 @@
       <c r="B25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
       <c r="F25" s="10" t="s">
         <v>4</v>
       </c>
@@ -1687,6 +1723,9 @@
       <c r="R26" s="7" t="s">
         <v>59</v>
       </c>
+      <c r="S26">
+        <v>96.81</v>
+      </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
@@ -1740,6 +1779,9 @@
       <c r="R27" s="7" t="s">
         <v>59</v>
       </c>
+      <c r="S27">
+        <v>97.15</v>
+      </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
@@ -1761,7 +1803,7 @@
         <v>41</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>32</v>
@@ -1794,8 +1836,574 @@
         <v>59</v>
       </c>
     </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B29" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="R29" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B30" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="R30" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B31" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="R31" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B32" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="R32" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M37" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q37" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="R37" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="S37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="T37" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B38" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N38" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="R38" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="S38">
+        <v>99.94</v>
+      </c>
+      <c r="T38" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B39" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M39" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N39" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="R39" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="S39">
+        <v>99.93</v>
+      </c>
+      <c r="T39" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B40" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N40" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="R40" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="S40">
+        <v>99.93</v>
+      </c>
+      <c r="T40" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B41" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M41" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N41" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="R41" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="S41">
+        <v>99.94</v>
+      </c>
+      <c r="T41" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B42" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M42" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N42" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="R42" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="S42">
+        <v>99.93</v>
+      </c>
+      <c r="T42" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="C37:E37"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A14:N14"/>
